--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -1,24 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB454F-83A7-6245-8777-651E303173B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7700" yWindow="7120" windowWidth="31960" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D29">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,39 +56,24 @@
     <t>Your email address</t>
   </si>
   <si>
-    <t>I am the contact member for this team. I am the sole person filling out this form from my group, or, I am working alone.</t>
-  </si>
-  <si>
     <t>Team member 1</t>
   </si>
   <si>
     <t>Team member 2</t>
   </si>
   <si>
-    <t>Team member 3</t>
-  </si>
-  <si>
     <t>Please enter the URL of your GitHub repository</t>
   </si>
   <si>
-    <t>Please confirm that you've invited Phil McMinn to the repository with READ and WRITE access. (If you have not yet done this, please complete this step now – his GitHub username is "philmcminn".)</t>
-  </si>
-  <si>
     <t>dperry1@sheffield.ac.uk</t>
   </si>
   <si>
     <t>Daniel Perry</t>
   </si>
   <si>
-    <t>I confirm</t>
-  </si>
-  <si>
     <t>https://github.com/DanPerry1808/com3529Project</t>
   </si>
   <si>
-    <t>I confirm I have sent an invite to Phil McMinn and he has read and write access to my/our repository</t>
-  </si>
-  <si>
     <t>bmkhan1@sheffield.ac.uk</t>
   </si>
   <si>
@@ -449,33 +450,47 @@
   </si>
   <si>
     <t>https://github.com/Lwng8/com-3529</t>
+  </si>
+  <si>
+    <t>Marked</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,52 +498,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -718,26 +730,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="16" width="21.57"/>
+    <col min="1" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="9" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,968 +776,737 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>44304.764745706023</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>44304.76474570602</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>44304.765023206019</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>44304.76502320602</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>44304.766461388892</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>44304.767176944442</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>44304.76646138889</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>44304.773273472223</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>44304.76717694444</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>44304.803630300928</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>44304.77327347222</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>44304.804138842592</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>44304.80363030093</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>44304.831597581018</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>44304.80413884259</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>44304.905288530092</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>44304.83159758102</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>44304.928489097219</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>44304.90528853009</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>44305.010643865739</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>44304.92848909722</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>44305.229202303242</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>44305.01064386574</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>44305.426237326392</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>44305.22920230324</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>44305.42623732639</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>44305.43119412037</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>44305.456753634258</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>44305.509487743053</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>44305.45675363426</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>44305.50948774305</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>44305.527540462965</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>44305.5571418287</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>67</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>44305.64322528935</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>69</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>44305.664326157406</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>44305.666174120372</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>44305.66617412037</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>44305.72624275463</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>44305.921540011579</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>44305.92154001158</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>44306.446108125005</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>44306.504676747689</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>44306.50467674769</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>44306.509179976856</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>44306.553237164349</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>44306.557154733797</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>44306.55323716435</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6">
-        <v>44306.5571547338</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>44306.556638055554</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>44306.574880821761</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>44306.57488082176</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>44306.58635125</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>44306.651849259259</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="5" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>44306.654424456021</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>44306.65184925926</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="5" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>44306.714423865742</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3">
-        <v>44306.65442445602</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="4" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>44306.718137256947</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>44306.71442386574</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="D36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>44306.771539965281</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3">
-        <v>44306.71813725695</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="D37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>44306.77153996528</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>44307.47064201389</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>44307.548829849533</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>44307.54882984953</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="I2"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="I4"/>
-    <hyperlink r:id="rId5" ref="I5"/>
-    <hyperlink r:id="rId6" ref="I6"/>
-    <hyperlink r:id="rId7" ref="I7"/>
-    <hyperlink r:id="rId8" ref="I8"/>
-    <hyperlink r:id="rId9" ref="I9"/>
-    <hyperlink r:id="rId10" ref="I10"/>
-    <hyperlink r:id="rId11" ref="I11"/>
-    <hyperlink r:id="rId12" ref="I12"/>
-    <hyperlink r:id="rId13" ref="I13"/>
-    <hyperlink r:id="rId14" ref="I14"/>
-    <hyperlink r:id="rId15" ref="I15"/>
-    <hyperlink r:id="rId16" ref="I16"/>
-    <hyperlink r:id="rId17" ref="I17"/>
-    <hyperlink r:id="rId18" ref="I18"/>
-    <hyperlink r:id="rId19" ref="I19"/>
-    <hyperlink r:id="rId20" ref="I20"/>
-    <hyperlink r:id="rId21" ref="I21"/>
-    <hyperlink r:id="rId22" ref="I22"/>
-    <hyperlink r:id="rId23" ref="I23"/>
-    <hyperlink r:id="rId24" ref="I24"/>
-    <hyperlink r:id="rId25" ref="I25"/>
-    <hyperlink r:id="rId26" ref="I26"/>
-    <hyperlink r:id="rId27" ref="I27"/>
-    <hyperlink r:id="rId28" ref="I28"/>
-    <hyperlink r:id="rId29" ref="I29"/>
-    <hyperlink r:id="rId30" ref="I30"/>
-    <hyperlink r:id="rId31" ref="I31"/>
-    <hyperlink r:id="rId32" ref="I32"/>
-    <hyperlink r:id="rId33" ref="I33"/>
-    <hyperlink r:id="rId34" ref="I34"/>
-    <hyperlink r:id="rId35" ref="I35"/>
-    <hyperlink r:id="rId36" ref="I36"/>
-    <hyperlink r:id="rId37" ref="I37"/>
-    <hyperlink r:id="rId38" ref="I38"/>
-    <hyperlink r:id="rId39" ref="I39"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
-  <drawing r:id="rId40"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB454F-83A7-6245-8777-651E303173B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED9D7B4-E053-1A4A-8888-B502EEED1345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="7120" windowWidth="31960" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,13 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Your name</t>
   </si>
@@ -236,9 +230,6 @@
     <t>https://github.com/przemo199/Software-Testing-And-Analysis-Assignment</t>
   </si>
   <si>
-    <t>iolagunju1@sheffield.ac.uk</t>
-  </si>
-  <si>
     <t>Ikeoluwa Olagunju</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>https://github.com/acc17cg/com3529_assignment.git</t>
   </si>
   <si>
-    <t>ackelly1@sheffield.ac.uk</t>
-  </si>
-  <si>
     <t>Art Kelly</t>
   </si>
   <si>
@@ -429,9 +417,6 @@
   </si>
   <si>
     <t>https://github.com/MathhewDu/com3529.git</t>
-  </si>
-  <si>
-    <t>zzhao30@sheffield.ac.uk</t>
   </si>
   <si>
     <t>Ziting ZHAO</t>
@@ -462,9 +447,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -513,14 +495,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -740,771 +720,537 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
-    <col min="9" max="13" width="21.5" customWidth="1"/>
+    <col min="1" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="11" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>44304.764745706023</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>44304.765023206019</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>44304.766461388892</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>44304.767176944442</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>44304.773273472223</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>44304.803630300928</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>44304.804138842592</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>44304.831597581018</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>44304.905288530092</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>44304.928489097219</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>44305.010643865739</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>44305.229202303242</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>44305.426237326392</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>44305.43119412037</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>44305.456753634258</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>44305.509487743053</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>44305.527540462965</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>44305.5571418287</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>44305.64322528935</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>44305.664326157406</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>44305.666174120372</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="5" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>44305.72624275463</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>44305.921540011579</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>44306.446108125005</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="5" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>44306.504676747689</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="5" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>44306.509179976856</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="5" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>44306.553237164349</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>44306.557154733797</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>44306.556638055554</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>44306.574880821761</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="5" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>44306.58635125</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>44306.651849259259</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>44306.654424456021</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="5" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>44306.714423865742</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="5" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>44306.718137256947</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="5" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>44306.771539965281</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="5" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
-        <v>44307.47064201389</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>44307.548829849533</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId39"/>

--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED9D7B4-E053-1A4A-8888-B502EEED1345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A2BE3-9A41-2449-8933-04AE4915E44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>Your name</t>
   </si>
@@ -722,9 +722,9 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>109</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -1155,8 +1155,11 @@
       <c r="E34" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>117</v>
       </c>
@@ -1166,8 +1169,11 @@
       <c r="E35" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>120</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
@@ -1188,8 +1194,11 @@
       <c r="E37" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -1199,8 +1208,11 @@
       <c r="E38" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>129</v>
       </c>

--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A2BE3-9A41-2449-8933-04AE4915E44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CEBEE1-A1FB-584F-8F08-92DE8CC00D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
   <si>
     <t>Your name</t>
   </si>
@@ -441,13 +441,34 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>ECF</t>
+  </si>
+  <si>
+    <t>ECF?</t>
+  </si>
+  <si>
+    <t>LATE</t>
+  </si>
+  <si>
+    <t>Late (but submitted)</t>
+  </si>
+  <si>
+    <t>NOTHING SUBMITTED?</t>
+  </si>
+  <si>
+    <t>READY</t>
+  </si>
+  <si>
+    <t>Late Submissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -474,6 +495,12 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,18 +519,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -720,11 +750,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G34:G35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -734,7 +764,7 @@
     <col min="7" max="11" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,8 +783,11 @@
       <c r="G1" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -768,7 +801,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -782,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -796,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -810,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -821,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -832,7 +865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -846,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -857,7 +890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -867,8 +900,11 @@
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -882,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -896,7 +932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -907,7 +943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -918,7 +954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -929,7 +965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -940,7 +976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -951,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -962,7 +998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -976,7 +1012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
@@ -987,7 +1023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1004,7 +1040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1015,7 +1051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
@@ -1026,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
@@ -1037,29 +1073,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -1069,8 +1111,11 @@
       <c r="E27" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
@@ -1080,8 +1125,11 @@
       <c r="E28" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
@@ -1091,19 +1139,25 @@
       <c r="E29" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>102</v>
       </c>
@@ -1113,11 +1167,14 @@
       <c r="C31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>106</v>
       </c>
@@ -1127,8 +1184,11 @@
       <c r="E32" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>109</v>
       </c>
@@ -1141,8 +1201,11 @@
       <c r="E33" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -1159,7 +1222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>117</v>
       </c>
@@ -1173,7 +1236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>120</v>
       </c>
@@ -1183,8 +1246,11 @@
       <c r="E36" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
@@ -1198,7 +1264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -1212,7 +1278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>129</v>
       </c>
@@ -1221,6 +1287,9 @@
       </c>
       <c r="E39" s="5" t="s">
         <v>130</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CEBEE1-A1FB-584F-8F08-92DE8CC00D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0F465-5794-4743-A57E-B0BFC68C2ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>Your name</t>
   </si>
@@ -462,13 +473,16 @@
   </si>
   <si>
     <t>Late Submissions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -501,6 +515,12 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -531,6 +551,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -750,11 +772,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -900,7 +922,10 @@
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1016,11 +1041,14 @@
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1036,8 +1064,11 @@
       <c r="D21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1050,6 +1081,9 @@
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1061,6 +1095,9 @@
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1069,8 +1106,11 @@
       <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1097,8 +1137,11 @@
       <c r="E26" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1290,6 +1333,25 @@
       </c>
       <c r="H39" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40">
+        <f>COUNTIF(G2:G39, "Yes")</f>
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <f>39-COUNTIF(H2:H39, "")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="7">
+        <f>G40/38</f>
+        <v>0.28947368421052633</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1394,9 @@
     <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B20" r:id="rId39" xr:uid="{C57EBB35-0B6B-BD4F-A10E-D1B481ED809D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId39"/>
+  <legacyDrawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0F465-5794-4743-A57E-B0BFC68C2ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A1CC1-565F-D849-BB50-7F455F3C27BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>Your name</t>
   </si>
@@ -476,6 +476,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>28 can mark</t>
+  </si>
+  <si>
+    <t>29 done by Tues (2 per day)</t>
+  </si>
+  <si>
+    <t>21 done by today</t>
+  </si>
+  <si>
+    <t>10 remaining over 3 days</t>
+  </si>
+  <si>
+    <t>(could be more drawn out than that)</t>
   </si>
 </sst>
 </file>
@@ -772,11 +787,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -978,16 +993,22 @@
       <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1000,6 +1021,9 @@
       <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="G16" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1008,8 +1032,11 @@
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1022,6 +1049,9 @@
       <c r="E18" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="G18" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1033,8 +1063,11 @@
       <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1341,7 +1374,7 @@
       </c>
       <c r="G40">
         <f>COUNTIF(G2:G39, "Yes")</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <f>39-COUNTIF(H2:H39, "")</f>
@@ -1351,7 +1384,30 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G41" s="7">
         <f>G40/38</f>
-        <v>0.28947368421052633</v>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G45" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G47" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1451,9 @@
     <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B20" r:id="rId39" xr:uid="{C57EBB35-0B6B-BD4F-A10E-D1B481ED809D}"/>
+    <hyperlink ref="B15" r:id="rId40" xr:uid="{B26694FB-2F0A-5F46-9630-3556C1512D4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId40"/>
+  <legacyDrawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A1CC1-565F-D849-BB50-7F455F3C27BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93359DBB-759E-D748-8E13-E76DFC30929D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
   <si>
     <t>Your name</t>
   </si>
@@ -791,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -968,8 +968,11 @@
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,6 +985,9 @@
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1374,7 +1380,7 @@
       </c>
       <c r="G40">
         <f>COUNTIF(G2:G39, "Yes")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40">
         <f>39-COUNTIF(H2:H39, "")</f>
@@ -1384,7 +1390,7 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G41" s="7">
         <f>G40/38</f>
-        <v>0.44736842105263158</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/assignments/2021/responses.xlsx
+++ b/assignments/2021/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/workspace/com3529/assignments/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93359DBB-759E-D748-8E13-E76DFC30929D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12F379D-9BB4-5641-B9B4-F489BB785996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51600" yWindow="-2240" windowWidth="19420" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51600" yWindow="-1540" windowWidth="22740" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
   <si>
     <t>Your name</t>
   </si>
@@ -789,9 +789,9 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -957,6 +957,9 @@
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1380,7 +1383,7 @@
       </c>
       <c r="G40">
         <f>COUNTIF(G2:G39, "Yes")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40">
         <f>39-COUNTIF(H2:H39, "")</f>
@@ -1390,7 +1393,7 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G41" s="7">
         <f>G40/38</f>
-        <v>0.5</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
